--- a/2021.04.17_TpMntr_Excl_Pvt_Slcr_1.xlsx
+++ b/2021.04.17_TpMntr_Excl_Pvt_Slcr_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e379916\OneDrive - Honeywell\My Docs\Education\2021.04-APR-11_Top Mentor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236A665D-EA02-419E-879D-3DFF0467794A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96865DF2-E2C5-4E78-BFB7-9710A5702110}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6AC5982E-A9D2-49CA-96C0-044FE4CF6DAC}"/>
   </bookViews>
